--- a/teste.xlsx
+++ b/teste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="407">
   <si>
     <t>CODIGO COMPOSICAO</t>
   </si>
@@ -955,40 +955,16 @@
     <t>6.32</t>
   </si>
   <si>
-    <t>0.086976</t>
-  </si>
-  <si>
-    <t>9.599999999999999e-05</t>
-  </si>
-  <si>
-    <t>0.0045119999999999995</t>
-  </si>
-  <si>
-    <t>0.003264</t>
-  </si>
-  <si>
-    <t>0.009791999999999999</t>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.00</t>
   </si>
   <si>
     <t>0.15</t>
   </si>
   <si>
-    <t>0.06177599999999999</t>
-  </si>
-  <si>
-    <t>4.7999999999999994e-05</t>
-  </si>
-  <si>
-    <t>0.0022559999999999998</t>
-  </si>
-  <si>
-    <t>0.001632</t>
-  </si>
-  <si>
-    <t>0.003935999999999999</t>
-  </si>
-  <si>
-    <t>0.006719999999999999</t>
+    <t>0.06</t>
   </si>
   <si>
     <t>0.11</t>
@@ -1003,10 +979,7 @@
     <t>0.68</t>
   </si>
   <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>0.09</t>
+    <t>1.30</t>
   </si>
   <si>
     <t>14.49</t>
@@ -1015,60 +988,30 @@
     <t>4.34</t>
   </si>
   <si>
-    <t>13.6</t>
+    <t>13.60</t>
   </si>
   <si>
     <t>76.28</t>
   </si>
   <si>
-    <t>2.6500000000000004</t>
+    <t>2.65</t>
   </si>
   <si>
     <t>332.31</t>
   </si>
   <si>
-    <t>0.066138</t>
-  </si>
-  <si>
-    <t>7.3e-05</t>
-  </si>
-  <si>
-    <t>0.003431</t>
-  </si>
-  <si>
-    <t>0.0024820000000000003</t>
-  </si>
-  <si>
-    <t>0.007446</t>
-  </si>
-  <si>
-    <t>0.047619</t>
-  </si>
-  <si>
-    <t>3.7000000000000005e-05</t>
-  </si>
-  <si>
-    <t>0.0017389999999999999</t>
-  </si>
-  <si>
-    <t>0.0012580000000000002</t>
-  </si>
-  <si>
-    <t>0.003034</t>
-  </si>
-  <si>
-    <t>0.00518</t>
-  </si>
-  <si>
-    <t>19.2</t>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>19.20</t>
   </si>
   <si>
     <t>38.12</t>
   </si>
   <si>
-    <t>0.07</t>
-  </si>
-  <si>
     <t>15.34</t>
   </si>
   <si>
@@ -1078,7 +1021,7 @@
     <t>1.96</t>
   </si>
   <si>
-    <t>0.5</t>
+    <t>0.50</t>
   </si>
   <si>
     <t>37.44</t>
@@ -1093,43 +1036,34 @@
     <t>30.18</t>
   </si>
   <si>
-    <t>9.008999999999999</t>
-  </si>
-  <si>
-    <t>0.006999999999999999</t>
-  </si>
-  <si>
-    <t>0.32899999999999996</t>
-  </si>
-  <si>
-    <t>0.238</t>
-  </si>
-  <si>
-    <t>0.33599999999999997</t>
-  </si>
-  <si>
-    <t>0.6789999999999999</t>
+    <t>9.01</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.24</t>
   </si>
   <si>
     <t>0.22</t>
   </si>
   <si>
-    <t>30.532200000000003</t>
-  </si>
-  <si>
-    <t>0.0337</t>
-  </si>
-  <si>
-    <t>1.5838999999999999</t>
-  </si>
-  <si>
-    <t>1.1458000000000002</t>
-  </si>
-  <si>
-    <t>3.4374000000000002</t>
-  </si>
-  <si>
-    <t>0.4</t>
+    <t>30.53</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>0.40</t>
   </si>
   <si>
     <t>0.31</t>
@@ -1141,100 +1075,61 @@
     <t>55.68</t>
   </si>
   <si>
-    <t>1.8018</t>
-  </si>
-  <si>
-    <t>0.0014000000000000002</t>
-  </si>
-  <si>
-    <t>0.0658</t>
-  </si>
-  <si>
-    <t>0.04760000000000001</t>
-  </si>
-  <si>
-    <t>0.07700000000000001</t>
-  </si>
-  <si>
-    <t>0.1316</t>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>0.13</t>
   </si>
   <si>
     <t>0.38</t>
   </si>
   <si>
-    <t>76.452</t>
+    <t>76.45</t>
   </si>
   <si>
     <t>11.08</t>
   </si>
   <si>
-    <t>57.616</t>
-  </si>
-  <si>
-    <t>2.1879</t>
-  </si>
-  <si>
-    <t>0.0017000000000000001</t>
-  </si>
-  <si>
-    <t>0.0799</t>
-  </si>
-  <si>
-    <t>0.05780000000000001</t>
-  </si>
-  <si>
-    <t>0.18190000000000003</t>
-  </si>
-  <si>
-    <t>1.5402000000000002</t>
-  </si>
-  <si>
-    <t>0.17340000000000003</t>
-  </si>
-  <si>
-    <t>53.11656000000001</t>
-  </si>
-  <si>
-    <t>6.036029999999999</t>
-  </si>
-  <si>
-    <t>0.00469</t>
-  </si>
-  <si>
-    <t>0.22043</t>
-  </si>
-  <si>
-    <t>0.15946</t>
-  </si>
-  <si>
-    <t>0.50183</t>
-  </si>
-  <si>
-    <t>0.22512</t>
-  </si>
-  <si>
-    <t>0.45492999999999995</t>
-  </si>
-  <si>
-    <t>76.29426</t>
-  </si>
-  <si>
-    <t>0.08421</t>
-  </si>
-  <si>
-    <t>3.9578699999999993</t>
-  </si>
-  <si>
-    <t>2.86314</t>
-  </si>
-  <si>
-    <t>8.589419999999999</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.05</t>
+    <t>57.62</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>53.12</t>
+  </si>
+  <si>
+    <t>6.04</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>76.29</t>
+  </si>
+  <si>
+    <t>3.96</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>8.59</t>
   </si>
   <si>
     <t>0.19</t>
@@ -1243,145 +1138,97 @@
     <t>1.06</t>
   </si>
   <si>
-    <t>14.469</t>
-  </si>
-  <si>
-    <t>77.175</t>
-  </si>
-  <si>
-    <t>25.179</t>
-  </si>
-  <si>
-    <t>21.2004</t>
-  </si>
-  <si>
-    <t>0.0234</t>
-  </si>
-  <si>
-    <t>1.0997999999999999</t>
-  </si>
-  <si>
-    <t>0.7956</t>
-  </si>
-  <si>
-    <t>2.3868</t>
-  </si>
-  <si>
-    <t>0.0148</t>
-  </si>
-  <si>
-    <t>0.6956</t>
-  </si>
-  <si>
-    <t>0.5032</t>
-  </si>
-  <si>
-    <t>17.316</t>
-  </si>
-  <si>
-    <t>0.962</t>
+    <t>14.47</t>
+  </si>
+  <si>
+    <t>77.17</t>
+  </si>
+  <si>
+    <t>25.18</t>
+  </si>
+  <si>
+    <t>21.20</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>17.32</t>
+  </si>
+  <si>
+    <t>0.96</t>
   </si>
   <si>
     <t>0.04</t>
   </si>
   <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>1.2311999999999999</t>
-  </si>
-  <si>
-    <t>4.104</t>
-  </si>
-  <si>
-    <t>4.95357</t>
-  </si>
-  <si>
-    <t>0.00489</t>
-  </si>
-  <si>
-    <t>0.22982999999999998</t>
-  </si>
-  <si>
-    <t>0.16626000000000002</t>
-  </si>
-  <si>
-    <t>0.52323</t>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>4.95</t>
   </si>
   <si>
     <t>0.12</t>
   </si>
   <si>
-    <t>34.33716</t>
-  </si>
-  <si>
-    <t>0.026680000000000002</t>
-  </si>
-  <si>
-    <t>1.25396</t>
-  </si>
-  <si>
-    <t>0.9071200000000001</t>
-  </si>
-  <si>
-    <t>2.85476</t>
-  </si>
-  <si>
-    <t>9.4552</t>
-  </si>
-  <si>
-    <t>0.3763</t>
-  </si>
-  <si>
-    <t>22.3289</t>
-  </si>
-  <si>
-    <t>1.3675500000000003</t>
-  </si>
-  <si>
-    <t>0.00135</t>
-  </si>
-  <si>
-    <t>0.06345</t>
-  </si>
-  <si>
-    <t>0.0459</t>
-  </si>
-  <si>
-    <t>0.14445000000000002</t>
-  </si>
-  <si>
-    <t>8.68725</t>
-  </si>
-  <si>
-    <t>0.006750000000000001</t>
-  </si>
-  <si>
-    <t>0.31725</t>
-  </si>
-  <si>
-    <t>0.22950000000000004</t>
-  </si>
-  <si>
-    <t>0.7222500000000001</t>
+    <t>34.34</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>9.46</t>
+  </si>
+  <si>
+    <t>22.33</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>8.69</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.72</t>
   </si>
   <si>
     <t>2.69</t>
   </si>
   <si>
-    <t>35.84136</t>
-  </si>
-  <si>
-    <t>0.03956</t>
-  </si>
-  <si>
-    <t>1.8593199999999999</t>
-  </si>
-  <si>
-    <t>1.34504</t>
-  </si>
-  <si>
-    <t>4.03512</t>
+    <t>35.84</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>4.04</t>
   </si>
   <si>
     <t>8.16</t>
@@ -1902,7 +1749,7 @@
         <v>267</v>
       </c>
       <c r="G8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1922,7 +1769,7 @@
         <v>268</v>
       </c>
       <c r="G9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1962,7 +1809,7 @@
         <v>268</v>
       </c>
       <c r="G11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1982,7 +1829,7 @@
         <v>269</v>
       </c>
       <c r="G12" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2019,7 +1866,7 @@
         <v>265</v>
       </c>
       <c r="G14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2056,7 +1903,7 @@
         <v>270</v>
       </c>
       <c r="G16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2076,7 +1923,7 @@
         <v>266</v>
       </c>
       <c r="G17" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2096,7 +1943,7 @@
         <v>267</v>
       </c>
       <c r="G18" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2116,7 +1963,7 @@
         <v>268</v>
       </c>
       <c r="G19" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2136,7 +1983,7 @@
         <v>266</v>
       </c>
       <c r="G20" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2156,7 +2003,7 @@
         <v>271</v>
       </c>
       <c r="G21" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2176,7 +2023,7 @@
         <v>272</v>
       </c>
       <c r="G22" t="s">
-        <v>324</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2213,7 +2060,7 @@
         <v>270</v>
       </c>
       <c r="G24" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2267,7 +2114,7 @@
         <v>273</v>
       </c>
       <c r="G27" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2287,7 +2134,7 @@
         <v>266</v>
       </c>
       <c r="G28" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2327,7 +2174,7 @@
         <v>268</v>
       </c>
       <c r="G30" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2347,7 +2194,7 @@
         <v>266</v>
       </c>
       <c r="G31" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2367,7 +2214,7 @@
         <v>266</v>
       </c>
       <c r="G32" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2387,7 +2234,7 @@
         <v>274</v>
       </c>
       <c r="G33" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2424,7 +2271,7 @@
         <v>273</v>
       </c>
       <c r="G35" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2461,7 +2308,7 @@
         <v>275</v>
       </c>
       <c r="G37" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2498,7 +2345,7 @@
         <v>275</v>
       </c>
       <c r="G39" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2552,7 +2399,7 @@
         <v>273</v>
       </c>
       <c r="G42" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2572,7 +2419,7 @@
         <v>266</v>
       </c>
       <c r="G43" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2612,7 +2459,7 @@
         <v>268</v>
       </c>
       <c r="G45" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2632,7 +2479,7 @@
         <v>266</v>
       </c>
       <c r="G46" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2652,7 +2499,7 @@
         <v>266</v>
       </c>
       <c r="G47" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2672,7 +2519,7 @@
         <v>274</v>
       </c>
       <c r="G48" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2709,7 +2556,7 @@
         <v>273</v>
       </c>
       <c r="G50" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2746,7 +2593,7 @@
         <v>275</v>
       </c>
       <c r="G52" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2783,7 +2630,7 @@
         <v>275</v>
       </c>
       <c r="G54" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2820,7 +2667,7 @@
         <v>275</v>
       </c>
       <c r="G56" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2857,7 +2704,7 @@
         <v>276</v>
       </c>
       <c r="G58" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2917,7 +2764,7 @@
         <v>263</v>
       </c>
       <c r="G61" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2937,7 +2784,7 @@
         <v>264</v>
       </c>
       <c r="G62" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2974,7 +2821,7 @@
         <v>265</v>
       </c>
       <c r="G64" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2994,7 +2841,7 @@
         <v>266</v>
       </c>
       <c r="G65" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3014,7 +2861,7 @@
         <v>267</v>
       </c>
       <c r="G66" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3034,7 +2881,7 @@
         <v>268</v>
       </c>
       <c r="G67" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3054,7 +2901,7 @@
         <v>266</v>
       </c>
       <c r="G68" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3074,7 +2921,7 @@
         <v>268</v>
       </c>
       <c r="G69" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3094,7 +2941,7 @@
         <v>269</v>
       </c>
       <c r="G70" t="s">
-        <v>341</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3131,7 +2978,7 @@
         <v>265</v>
       </c>
       <c r="G72" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3168,7 +3015,7 @@
         <v>270</v>
       </c>
       <c r="G74" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3188,7 +3035,7 @@
         <v>266</v>
       </c>
       <c r="G75" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3208,7 +3055,7 @@
         <v>267</v>
       </c>
       <c r="G76" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3228,7 +3075,7 @@
         <v>268</v>
       </c>
       <c r="G77" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3248,7 +3095,7 @@
         <v>266</v>
       </c>
       <c r="G78" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3268,7 +3115,7 @@
         <v>271</v>
       </c>
       <c r="G79" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3288,7 +3135,7 @@
         <v>272</v>
       </c>
       <c r="G80" t="s">
-        <v>347</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3325,7 +3172,7 @@
         <v>270</v>
       </c>
       <c r="G82" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3379,7 +3226,7 @@
         <v>273</v>
       </c>
       <c r="G85" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3399,7 +3246,7 @@
         <v>266</v>
       </c>
       <c r="G86" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3439,7 +3286,7 @@
         <v>268</v>
       </c>
       <c r="G88" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3459,7 +3306,7 @@
         <v>266</v>
       </c>
       <c r="G89" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3479,7 +3326,7 @@
         <v>266</v>
       </c>
       <c r="G90" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3499,7 +3346,7 @@
         <v>274</v>
       </c>
       <c r="G91" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3536,7 +3383,7 @@
         <v>273</v>
       </c>
       <c r="G93" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3573,7 +3420,7 @@
         <v>275</v>
       </c>
       <c r="G95" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3610,7 +3457,7 @@
         <v>275</v>
       </c>
       <c r="G97" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3664,7 +3511,7 @@
         <v>273</v>
       </c>
       <c r="G100" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3684,7 +3531,7 @@
         <v>266</v>
       </c>
       <c r="G101" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3724,7 +3571,7 @@
         <v>268</v>
       </c>
       <c r="G103" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3744,7 +3591,7 @@
         <v>266</v>
       </c>
       <c r="G104" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3764,7 +3611,7 @@
         <v>266</v>
       </c>
       <c r="G105" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3784,7 +3631,7 @@
         <v>274</v>
       </c>
       <c r="G106" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3821,7 +3668,7 @@
         <v>273</v>
       </c>
       <c r="G108" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3858,7 +3705,7 @@
         <v>275</v>
       </c>
       <c r="G110" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3895,7 +3742,7 @@
         <v>275</v>
       </c>
       <c r="G112" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3932,7 +3779,7 @@
         <v>275</v>
       </c>
       <c r="G114" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3969,7 +3816,7 @@
         <v>276</v>
       </c>
       <c r="G116" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4046,7 +3893,7 @@
         <v>277</v>
       </c>
       <c r="G120" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4083,7 +3930,7 @@
         <v>276</v>
       </c>
       <c r="G122" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4277,7 +4124,7 @@
         <v>278</v>
       </c>
       <c r="G132" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4314,7 +4161,7 @@
         <v>277</v>
       </c>
       <c r="G134" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4351,7 +4198,7 @@
         <v>277</v>
       </c>
       <c r="G136" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4428,7 +4275,7 @@
         <v>279</v>
       </c>
       <c r="G140" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4465,7 +4312,7 @@
         <v>279</v>
       </c>
       <c r="G142" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4525,7 +4372,7 @@
         <v>280</v>
       </c>
       <c r="G145" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4545,7 +4392,7 @@
         <v>281</v>
       </c>
       <c r="G146" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4565,7 +4412,7 @@
         <v>282</v>
       </c>
       <c r="G147" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4585,7 +4432,7 @@
         <v>283</v>
       </c>
       <c r="G148" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4622,7 +4469,7 @@
         <v>270</v>
       </c>
       <c r="G150" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4642,7 +4489,7 @@
         <v>266</v>
       </c>
       <c r="G151" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4662,7 +4509,7 @@
         <v>267</v>
       </c>
       <c r="G152" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4682,7 +4529,7 @@
         <v>268</v>
       </c>
       <c r="G153" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4702,7 +4549,7 @@
         <v>266</v>
       </c>
       <c r="G154" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4722,7 +4569,7 @@
         <v>284</v>
       </c>
       <c r="G155" t="s">
-        <v>363</v>
+        <v>268</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4742,7 +4589,7 @@
         <v>285</v>
       </c>
       <c r="G156" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4779,7 +4626,7 @@
         <v>270</v>
       </c>
       <c r="G158" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4816,7 +4663,7 @@
         <v>265</v>
       </c>
       <c r="G160" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4836,7 +4683,7 @@
         <v>266</v>
       </c>
       <c r="G161" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4856,7 +4703,7 @@
         <v>267</v>
       </c>
       <c r="G162" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4876,7 +4723,7 @@
         <v>268</v>
       </c>
       <c r="G163" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4896,7 +4743,7 @@
         <v>266</v>
       </c>
       <c r="G164" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4916,7 +4763,7 @@
         <v>268</v>
       </c>
       <c r="G165" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4936,7 +4783,7 @@
         <v>269</v>
       </c>
       <c r="G166" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4973,7 +4820,7 @@
         <v>265</v>
       </c>
       <c r="G168" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5027,7 +4874,7 @@
         <v>286</v>
       </c>
       <c r="G171" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5064,7 +4911,7 @@
         <v>286</v>
       </c>
       <c r="G173" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5101,7 +4948,7 @@
         <v>286</v>
       </c>
       <c r="G175" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5138,7 +4985,7 @@
         <v>287</v>
       </c>
       <c r="G177" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5198,7 +5045,7 @@
         <v>288</v>
       </c>
       <c r="G180" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5235,7 +5082,7 @@
         <v>270</v>
       </c>
       <c r="G182" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5255,7 +5102,7 @@
         <v>266</v>
       </c>
       <c r="G183" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5275,7 +5122,7 @@
         <v>267</v>
       </c>
       <c r="G184" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5295,7 +5142,7 @@
         <v>268</v>
       </c>
       <c r="G185" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5315,7 +5162,7 @@
         <v>266</v>
       </c>
       <c r="G186" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5335,7 +5182,7 @@
         <v>289</v>
       </c>
       <c r="G187" t="s">
-        <v>379</v>
+        <v>311</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5355,7 +5202,7 @@
         <v>290</v>
       </c>
       <c r="G188" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5392,7 +5239,7 @@
         <v>270</v>
       </c>
       <c r="G190" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5469,7 +5316,7 @@
         <v>291</v>
       </c>
       <c r="G194" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5489,7 +5336,7 @@
         <v>292</v>
       </c>
       <c r="G195" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5509,7 +5356,7 @@
         <v>293</v>
       </c>
       <c r="G196" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5546,7 +5393,7 @@
         <v>270</v>
       </c>
       <c r="G198" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5566,7 +5413,7 @@
         <v>266</v>
       </c>
       <c r="G199" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5586,7 +5433,7 @@
         <v>267</v>
       </c>
       <c r="G200" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5606,7 +5453,7 @@
         <v>268</v>
       </c>
       <c r="G201" t="s">
-        <v>388</v>
+        <v>316</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5626,7 +5473,7 @@
         <v>266</v>
       </c>
       <c r="G202" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5646,7 +5493,7 @@
         <v>268</v>
       </c>
       <c r="G203" t="s">
-        <v>388</v>
+        <v>316</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5666,7 +5513,7 @@
         <v>294</v>
       </c>
       <c r="G204" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5703,7 +5550,7 @@
         <v>270</v>
       </c>
       <c r="G206" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5740,7 +5587,7 @@
         <v>265</v>
       </c>
       <c r="G208" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5760,7 +5607,7 @@
         <v>266</v>
       </c>
       <c r="G209" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5780,7 +5627,7 @@
         <v>267</v>
       </c>
       <c r="G210" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5800,7 +5647,7 @@
         <v>268</v>
       </c>
       <c r="G211" t="s">
-        <v>388</v>
+        <v>316</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5820,7 +5667,7 @@
         <v>266</v>
       </c>
       <c r="G212" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5840,7 +5687,7 @@
         <v>268</v>
       </c>
       <c r="G213" t="s">
-        <v>388</v>
+        <v>316</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5860,7 +5707,7 @@
         <v>269</v>
       </c>
       <c r="G214" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5897,7 +5744,7 @@
         <v>265</v>
       </c>
       <c r="G216" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5934,7 +5781,7 @@
         <v>295</v>
       </c>
       <c r="G218" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5971,7 +5818,7 @@
         <v>270</v>
       </c>
       <c r="G220" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5991,7 +5838,7 @@
         <v>266</v>
       </c>
       <c r="G221" t="s">
-        <v>394</v>
+        <v>314</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6011,7 +5858,7 @@
         <v>267</v>
       </c>
       <c r="G222" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6031,7 +5878,7 @@
         <v>268</v>
       </c>
       <c r="G223" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6051,7 +5898,7 @@
         <v>266</v>
       </c>
       <c r="G224" t="s">
-        <v>394</v>
+        <v>314</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6071,7 +5918,7 @@
         <v>268</v>
       </c>
       <c r="G225" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6091,7 +5938,7 @@
         <v>294</v>
       </c>
       <c r="G226" t="s">
-        <v>397</v>
+        <v>335</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6128,7 +5975,7 @@
         <v>270</v>
       </c>
       <c r="G228" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6165,7 +6012,7 @@
         <v>270</v>
       </c>
       <c r="G230" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6185,7 +6032,7 @@
         <v>266</v>
       </c>
       <c r="G231" t="s">
-        <v>394</v>
+        <v>314</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6205,7 +6052,7 @@
         <v>267</v>
       </c>
       <c r="G232" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6225,7 +6072,7 @@
         <v>268</v>
       </c>
       <c r="G233" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6245,7 +6092,7 @@
         <v>266</v>
       </c>
       <c r="G234" t="s">
-        <v>394</v>
+        <v>314</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6265,7 +6112,7 @@
         <v>284</v>
       </c>
       <c r="G235" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6285,7 +6132,7 @@
         <v>285</v>
       </c>
       <c r="G236" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6322,7 +6169,7 @@
         <v>270</v>
       </c>
       <c r="G238" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6359,7 +6206,7 @@
         <v>265</v>
       </c>
       <c r="G240" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -6379,7 +6226,7 @@
         <v>266</v>
       </c>
       <c r="G241" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6399,7 +6246,7 @@
         <v>267</v>
       </c>
       <c r="G242" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6419,7 +6266,7 @@
         <v>268</v>
       </c>
       <c r="G243" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6439,7 +6286,7 @@
         <v>266</v>
       </c>
       <c r="G244" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6459,7 +6306,7 @@
         <v>268</v>
       </c>
       <c r="G245" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6479,7 +6326,7 @@
         <v>269</v>
       </c>
       <c r="G246" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6516,7 +6363,7 @@
         <v>265</v>
       </c>
       <c r="G248" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6570,7 +6417,7 @@
         <v>296</v>
       </c>
       <c r="G251" t="s">
-        <v>405</v>
+        <v>342</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6607,7 +6454,7 @@
         <v>296</v>
       </c>
       <c r="G253" t="s">
-        <v>406</v>
+        <v>329</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6644,7 +6491,7 @@
         <v>296</v>
       </c>
       <c r="G255" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6681,7 +6528,7 @@
         <v>287</v>
       </c>
       <c r="G257" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6735,7 +6582,7 @@
         <v>296</v>
       </c>
       <c r="G260" t="s">
-        <v>405</v>
+        <v>342</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6772,7 +6619,7 @@
         <v>296</v>
       </c>
       <c r="G262" t="s">
-        <v>406</v>
+        <v>329</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6809,7 +6656,7 @@
         <v>297</v>
       </c>
       <c r="G264" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6829,7 +6676,7 @@
         <v>280</v>
       </c>
       <c r="G265" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6849,7 +6696,7 @@
         <v>298</v>
       </c>
       <c r="G266" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6886,7 +6733,7 @@
         <v>265</v>
       </c>
       <c r="G268" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6906,7 +6753,7 @@
         <v>266</v>
       </c>
       <c r="G269" t="s">
-        <v>413</v>
+        <v>319</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6926,7 +6773,7 @@
         <v>267</v>
       </c>
       <c r="G270" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6946,7 +6793,7 @@
         <v>268</v>
       </c>
       <c r="G271" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6966,7 +6813,7 @@
         <v>266</v>
       </c>
       <c r="G272" t="s">
-        <v>413</v>
+        <v>319</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6986,7 +6833,7 @@
         <v>268</v>
       </c>
       <c r="G273" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -7006,7 +6853,7 @@
         <v>269</v>
       </c>
       <c r="G274" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -7043,7 +6890,7 @@
         <v>265</v>
       </c>
       <c r="G276" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -7080,7 +6927,7 @@
         <v>266</v>
       </c>
       <c r="G278" t="s">
-        <v>417</v>
+        <v>266</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -7100,7 +6947,7 @@
         <v>267</v>
       </c>
       <c r="G279" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -7120,7 +6967,7 @@
         <v>268</v>
       </c>
       <c r="G280" t="s">
-        <v>419</v>
+        <v>335</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -7140,7 +6987,7 @@
         <v>266</v>
       </c>
       <c r="G281" t="s">
-        <v>417</v>
+        <v>266</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -7160,7 +7007,7 @@
         <v>299</v>
       </c>
       <c r="G282" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -7180,7 +7027,7 @@
         <v>266</v>
       </c>
       <c r="G283" t="s">
-        <v>417</v>
+        <v>266</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -7200,7 +7047,7 @@
         <v>274</v>
       </c>
       <c r="G284" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -7237,7 +7084,7 @@
         <v>299</v>
       </c>
       <c r="G286" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -7291,7 +7138,7 @@
         <v>300</v>
       </c>
       <c r="G289" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7328,7 +7175,7 @@
         <v>300</v>
       </c>
       <c r="G291" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7365,7 +7212,7 @@
         <v>300</v>
       </c>
       <c r="G293" t="s">
-        <v>423</v>
+        <v>360</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7402,7 +7249,7 @@
         <v>287</v>
       </c>
       <c r="G295" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7456,7 +7303,7 @@
         <v>300</v>
       </c>
       <c r="G298" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7493,7 +7340,7 @@
         <v>300</v>
       </c>
       <c r="G300" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7530,7 +7377,7 @@
         <v>301</v>
       </c>
       <c r="G302" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7550,7 +7397,7 @@
         <v>302</v>
       </c>
       <c r="G303" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7587,7 +7434,7 @@
         <v>303</v>
       </c>
       <c r="G305" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7607,7 +7454,7 @@
         <v>266</v>
       </c>
       <c r="G306" t="s">
-        <v>427</v>
+        <v>314</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7627,7 +7474,7 @@
         <v>267</v>
       </c>
       <c r="G307" t="s">
-        <v>428</v>
+        <v>366</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7647,7 +7494,7 @@
         <v>268</v>
       </c>
       <c r="G308" t="s">
-        <v>429</v>
+        <v>362</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7667,7 +7514,7 @@
         <v>266</v>
       </c>
       <c r="G309" t="s">
-        <v>427</v>
+        <v>314</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7687,7 +7534,7 @@
         <v>268</v>
       </c>
       <c r="G310" t="s">
-        <v>429</v>
+        <v>362</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7707,7 +7554,7 @@
         <v>294</v>
       </c>
       <c r="G311" t="s">
-        <v>430</v>
+        <v>280</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7744,7 +7591,7 @@
         <v>303</v>
       </c>
       <c r="G313" t="s">
-        <v>431</v>
+        <v>388</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7781,7 +7628,7 @@
         <v>270</v>
       </c>
       <c r="G315" t="s">
-        <v>432</v>
+        <v>389</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7801,7 +7648,7 @@
         <v>266</v>
       </c>
       <c r="G316" t="s">
-        <v>433</v>
+        <v>345</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7821,7 +7668,7 @@
         <v>267</v>
       </c>
       <c r="G317" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7841,7 +7688,7 @@
         <v>268</v>
       </c>
       <c r="G318" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7861,7 +7708,7 @@
         <v>266</v>
       </c>
       <c r="G319" t="s">
-        <v>433</v>
+        <v>345</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7881,7 +7728,7 @@
         <v>268</v>
       </c>
       <c r="G320" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -7901,7 +7748,7 @@
         <v>294</v>
       </c>
       <c r="G321" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -7938,7 +7785,7 @@
         <v>270</v>
       </c>
       <c r="G323" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -7975,7 +7822,7 @@
         <v>304</v>
       </c>
       <c r="G325" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -7995,7 +7842,7 @@
         <v>292</v>
       </c>
       <c r="G326" t="s">
-        <v>438</v>
+        <v>355</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -8015,7 +7862,7 @@
         <v>305</v>
       </c>
       <c r="G327" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -8052,7 +7899,7 @@
         <v>303</v>
       </c>
       <c r="G329" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -8072,7 +7919,7 @@
         <v>266</v>
       </c>
       <c r="G330" t="s">
-        <v>441</v>
+        <v>314</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -8092,7 +7939,7 @@
         <v>267</v>
       </c>
       <c r="G331" t="s">
-        <v>442</v>
+        <v>316</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -8112,7 +7959,7 @@
         <v>268</v>
       </c>
       <c r="G332" t="s">
-        <v>443</v>
+        <v>329</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -8132,7 +7979,7 @@
         <v>266</v>
       </c>
       <c r="G333" t="s">
-        <v>441</v>
+        <v>314</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8152,7 +7999,7 @@
         <v>268</v>
       </c>
       <c r="G334" t="s">
-        <v>443</v>
+        <v>329</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -8172,7 +8019,7 @@
         <v>294</v>
       </c>
       <c r="G335" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -8209,7 +8056,7 @@
         <v>303</v>
       </c>
       <c r="G337" t="s">
-        <v>431</v>
+        <v>388</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -8246,7 +8093,7 @@
         <v>270</v>
       </c>
       <c r="G339" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -8266,7 +8113,7 @@
         <v>266</v>
       </c>
       <c r="G340" t="s">
-        <v>446</v>
+        <v>266</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -8286,7 +8133,7 @@
         <v>267</v>
       </c>
       <c r="G341" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -8306,7 +8153,7 @@
         <v>268</v>
       </c>
       <c r="G342" t="s">
-        <v>448</v>
+        <v>366</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -8326,7 +8173,7 @@
         <v>266</v>
       </c>
       <c r="G343" t="s">
-        <v>446</v>
+        <v>266</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -8346,7 +8193,7 @@
         <v>268</v>
       </c>
       <c r="G344" t="s">
-        <v>448</v>
+        <v>366</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -8366,7 +8213,7 @@
         <v>294</v>
       </c>
       <c r="G345" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -8403,7 +8250,7 @@
         <v>270</v>
       </c>
       <c r="G347" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -8614,7 +8461,7 @@
         <v>306</v>
       </c>
       <c r="G358" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -8651,7 +8498,7 @@
         <v>307</v>
       </c>
       <c r="G360" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -8725,7 +8572,7 @@
         <v>307</v>
       </c>
       <c r="G364" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -8762,7 +8609,7 @@
         <v>287</v>
       </c>
       <c r="G366" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -8973,7 +8820,7 @@
         <v>306</v>
       </c>
       <c r="G377" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -9010,7 +8857,7 @@
         <v>307</v>
       </c>
       <c r="G379" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -9101,7 +8948,7 @@
         <v>265</v>
       </c>
       <c r="G384" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -9121,7 +8968,7 @@
         <v>266</v>
       </c>
       <c r="G385" t="s">
-        <v>452</v>
+        <v>384</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -9141,7 +8988,7 @@
         <v>267</v>
       </c>
       <c r="G386" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -9161,7 +9008,7 @@
         <v>268</v>
       </c>
       <c r="G387" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -9181,7 +9028,7 @@
         <v>266</v>
       </c>
       <c r="G388" t="s">
-        <v>452</v>
+        <v>384</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -9201,7 +9048,7 @@
         <v>268</v>
       </c>
       <c r="G389" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -9221,7 +9068,7 @@
         <v>269</v>
       </c>
       <c r="G390" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -9258,7 +9105,7 @@
         <v>265</v>
       </c>
       <c r="G392" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -9318,7 +9165,7 @@
         <v>308</v>
       </c>
       <c r="G395" t="s">
-        <v>456</v>
+        <v>405</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -9338,7 +9185,7 @@
         <v>309</v>
       </c>
       <c r="G396" t="s">
-        <v>457</v>
+        <v>406</v>
       </c>
     </row>
     <row r="397" spans="1:7">
